--- a/data/pca/factorExposure/factorExposure_2018-10-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.04754439281887805</v>
+        <v>-0.03816290158126313</v>
       </c>
       <c r="C2">
-        <v>-0.05493402346554267</v>
+        <v>-0.004414091824652916</v>
       </c>
       <c r="D2">
-        <v>0.04056498427508988</v>
+        <v>-0.01516131935322558</v>
       </c>
       <c r="E2">
-        <v>0.04891114965796209</v>
+        <v>0.01700049155095412</v>
       </c>
       <c r="F2">
-        <v>-0.1434565389375742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02955598285060162</v>
+      </c>
+      <c r="G2">
+        <v>-0.08232853972842637</v>
+      </c>
+      <c r="H2">
+        <v>0.0255043876530032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1513170063067105</v>
+        <v>-0.09266293941322543</v>
       </c>
       <c r="C3">
-        <v>-0.01534757954636032</v>
+        <v>0.03935254446579343</v>
       </c>
       <c r="D3">
-        <v>0.04730342962739301</v>
+        <v>-0.03352001539918432</v>
       </c>
       <c r="E3">
-        <v>0.08477840444671952</v>
+        <v>0.01060215108637252</v>
       </c>
       <c r="F3">
-        <v>-0.3682785627884862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.003247296272468908</v>
+      </c>
+      <c r="G3">
+        <v>-0.2794841866804794</v>
+      </c>
+      <c r="H3">
+        <v>0.05306947308624504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05498500391588051</v>
+        <v>-0.04999577967732177</v>
       </c>
       <c r="C4">
-        <v>-0.03640555209685975</v>
+        <v>0.007981411935890401</v>
       </c>
       <c r="D4">
-        <v>0.01423243246853466</v>
+        <v>-0.03314892125112482</v>
       </c>
       <c r="E4">
-        <v>0.0834164512996565</v>
+        <v>-0.0173277057650063</v>
       </c>
       <c r="F4">
-        <v>-0.06106469446859443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06530288638660166</v>
+      </c>
+      <c r="G4">
+        <v>-0.04089017955060845</v>
+      </c>
+      <c r="H4">
+        <v>0.03024495969455516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.009249656283034566</v>
+        <v>-0.03042259874976599</v>
       </c>
       <c r="C6">
-        <v>-0.001409926327350283</v>
+        <v>0.003799368841609858</v>
       </c>
       <c r="D6">
-        <v>0.009337269929440404</v>
+        <v>-0.03181550824367862</v>
       </c>
       <c r="E6">
-        <v>0.002292433744917505</v>
+        <v>-0.003113708049777261</v>
       </c>
       <c r="F6">
-        <v>-0.01111750989867701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.03413789750843975</v>
+      </c>
+      <c r="G6">
+        <v>-0.004477566667956069</v>
+      </c>
+      <c r="H6">
+        <v>0.05201031966003811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03016570847097354</v>
+        <v>-0.02430684712785656</v>
       </c>
       <c r="C7">
-        <v>-0.01755185862343879</v>
+        <v>0.004080655652330207</v>
       </c>
       <c r="D7">
-        <v>0.03364704193751927</v>
+        <v>-0.02074767173069758</v>
       </c>
       <c r="E7">
-        <v>0.03747608410383085</v>
+        <v>-0.03450434103720327</v>
       </c>
       <c r="F7">
-        <v>-0.0673378509642822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02713016514133413</v>
+      </c>
+      <c r="G7">
+        <v>-0.03414014283190565</v>
+      </c>
+      <c r="H7">
+        <v>0.02088873117838334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01422856039170112</v>
+        <v>-0.00426738906934512</v>
       </c>
       <c r="C8">
-        <v>-0.008037578982456422</v>
+        <v>0.00282228319099121</v>
       </c>
       <c r="D8">
-        <v>0.007552219936994289</v>
+        <v>-0.02107096828784463</v>
       </c>
       <c r="E8">
-        <v>0.07277108696552878</v>
+        <v>-0.01116729284459945</v>
       </c>
       <c r="F8">
-        <v>-0.09472168721896265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02942637637645886</v>
+      </c>
+      <c r="G8">
+        <v>-0.05273978801941637</v>
+      </c>
+      <c r="H8">
+        <v>0.01294378565974124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04493629568747835</v>
+        <v>-0.03990739511416599</v>
       </c>
       <c r="C9">
-        <v>-0.02817281424059026</v>
+        <v>0.009853026120031954</v>
       </c>
       <c r="D9">
-        <v>-0.0008606519668415959</v>
+        <v>-0.02846174113186611</v>
       </c>
       <c r="E9">
-        <v>0.08529493062213746</v>
+        <v>-0.01706227579440621</v>
       </c>
       <c r="F9">
-        <v>-0.07145318504199072</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04362285700446836</v>
+      </c>
+      <c r="G9">
+        <v>-0.06045068223343018</v>
+      </c>
+      <c r="H9">
+        <v>0.03472359508189804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.045581898351607</v>
+        <v>-0.06812535534115302</v>
       </c>
       <c r="C10">
-        <v>-0.05908049292218854</v>
+        <v>0.0352698583070753</v>
       </c>
       <c r="D10">
-        <v>-0.05165518913979582</v>
+        <v>0.1595927025069385</v>
       </c>
       <c r="E10">
-        <v>-0.1322920742227733</v>
+        <v>0.01339546362757236</v>
       </c>
       <c r="F10">
-        <v>-0.07295168038938993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0775885457110117</v>
+      </c>
+      <c r="G10">
+        <v>-0.04178362189161144</v>
+      </c>
+      <c r="H10">
+        <v>0.01043822094610046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03497971067489469</v>
+        <v>-0.02396120588140655</v>
       </c>
       <c r="C11">
-        <v>-0.009826660924759756</v>
+        <v>0.01530032379366988</v>
       </c>
       <c r="D11">
-        <v>0.02042743858292664</v>
+        <v>-0.03401056984727771</v>
       </c>
       <c r="E11">
-        <v>0.03618746060294237</v>
+        <v>0.005361743555947004</v>
       </c>
       <c r="F11">
-        <v>-0.0351747034693928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02408518671982389</v>
+      </c>
+      <c r="G11">
+        <v>-0.03128684292693142</v>
+      </c>
+      <c r="H11">
+        <v>0.03008066873190063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04176242788163424</v>
+        <v>-0.03258493812675891</v>
       </c>
       <c r="C12">
-        <v>-0.009755249162697993</v>
+        <v>0.01515026625910242</v>
       </c>
       <c r="D12">
-        <v>0.01266728484783721</v>
+        <v>-0.03415595983510428</v>
       </c>
       <c r="E12">
-        <v>0.04987255628486116</v>
+        <v>-0.004857299626277142</v>
       </c>
       <c r="F12">
-        <v>-0.02113845121746421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02710079934093412</v>
+      </c>
+      <c r="G12">
+        <v>-0.00573279158866581</v>
+      </c>
+      <c r="H12">
+        <v>0.01625308340074659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02717117410352207</v>
+        <v>-0.03026754817930146</v>
       </c>
       <c r="C13">
-        <v>-0.0215421078888169</v>
+        <v>-0.006167419127266547</v>
       </c>
       <c r="D13">
-        <v>0.03621980232009209</v>
+        <v>-0.005526393168548836</v>
       </c>
       <c r="E13">
-        <v>0.02291378186175789</v>
+        <v>0.01649041201871077</v>
       </c>
       <c r="F13">
-        <v>-0.09079380690806092</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02243534923574758</v>
+      </c>
+      <c r="G13">
+        <v>-0.0630813958627017</v>
+      </c>
+      <c r="H13">
+        <v>0.03088012425848994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0163388108921498</v>
+        <v>-0.01766519721828072</v>
       </c>
       <c r="C14">
-        <v>-0.0212308175250654</v>
+        <v>0.004781822028246792</v>
       </c>
       <c r="D14">
-        <v>0.0115778204603731</v>
+        <v>-0.00574041130129658</v>
       </c>
       <c r="E14">
-        <v>0.0428063726611632</v>
+        <v>-0.006435012093075744</v>
       </c>
       <c r="F14">
-        <v>-0.06265829324189465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02958010021054642</v>
+      </c>
+      <c r="G14">
+        <v>-0.04037575029183894</v>
+      </c>
+      <c r="H14">
+        <v>-0.01746192367512612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02739246281514303</v>
+        <v>-0.02394442296499972</v>
       </c>
       <c r="C16">
-        <v>-0.0108565375750872</v>
+        <v>0.01520920172207958</v>
       </c>
       <c r="D16">
-        <v>0.01857122981897298</v>
+        <v>-0.03267752865021069</v>
       </c>
       <c r="E16">
-        <v>0.03515938701295274</v>
+        <v>0.0008023899277459531</v>
       </c>
       <c r="F16">
-        <v>-0.03566437132439048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02599812856822756</v>
+      </c>
+      <c r="G16">
+        <v>-0.02396606720458066</v>
+      </c>
+      <c r="H16">
+        <v>0.02329580497948891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04097073895372573</v>
+        <v>-0.03524740464397057</v>
       </c>
       <c r="C19">
-        <v>-0.01363966641692577</v>
+        <v>0.008908004277875395</v>
       </c>
       <c r="D19">
-        <v>0.02791514487010419</v>
+        <v>-0.01420444783832245</v>
       </c>
       <c r="E19">
-        <v>0.04050256884475852</v>
+        <v>0.00350501347685473</v>
       </c>
       <c r="F19">
-        <v>-0.0983039188916691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.03388580982356675</v>
+      </c>
+      <c r="G19">
+        <v>-0.06392253248856514</v>
+      </c>
+      <c r="H19">
+        <v>0.04314259263266586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.004473437121873647</v>
+        <v>-0.01125366916860707</v>
       </c>
       <c r="C20">
-        <v>-0.01550710357658426</v>
+        <v>-0.004039130525495353</v>
       </c>
       <c r="D20">
-        <v>0.01430104657568719</v>
+        <v>-0.0131570871658293</v>
       </c>
       <c r="E20">
-        <v>0.04769501213522826</v>
+        <v>-0.002304671105410744</v>
       </c>
       <c r="F20">
-        <v>-0.06203362707995404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02008150373840326</v>
+      </c>
+      <c r="G20">
+        <v>-0.04834324598192912</v>
+      </c>
+      <c r="H20">
+        <v>-0.008910307379008348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.00236290657046347</v>
+        <v>-0.02301621753915706</v>
       </c>
       <c r="C21">
-        <v>-5.697414040985982e-05</v>
+        <v>-0.00115189817770953</v>
       </c>
       <c r="D21">
-        <v>0.01678335140637168</v>
+        <v>-0.0009178469732157123</v>
       </c>
       <c r="E21">
-        <v>0.03391327416988699</v>
+        <v>-0.01064533022793105</v>
       </c>
       <c r="F21">
-        <v>-0.0907860771742834</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01079912674749744</v>
+      </c>
+      <c r="G21">
+        <v>-0.05663838701402872</v>
+      </c>
+      <c r="H21">
+        <v>0.01523634958513392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02977266746149308</v>
+        <v>-0.02434302233267459</v>
       </c>
       <c r="C24">
-        <v>-0.009494194113641528</v>
+        <v>0.01023193658015759</v>
       </c>
       <c r="D24">
-        <v>0.01522290171630758</v>
+        <v>-0.03137129337059643</v>
       </c>
       <c r="E24">
-        <v>0.03318646667479113</v>
+        <v>0.0004339791191870092</v>
       </c>
       <c r="F24">
-        <v>-0.03788924589488593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02153667221911182</v>
+      </c>
+      <c r="G24">
+        <v>-0.02577758693924303</v>
+      </c>
+      <c r="H24">
+        <v>0.03060573275387373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03186879469809577</v>
+        <v>-0.03416435265590401</v>
       </c>
       <c r="C25">
-        <v>-0.008341684095567226</v>
+        <v>0.0102862221543077</v>
       </c>
       <c r="D25">
-        <v>0.01372730178092031</v>
+        <v>-0.0251981218777056</v>
       </c>
       <c r="E25">
-        <v>0.03816465392870612</v>
+        <v>-4.949944383577592e-05</v>
       </c>
       <c r="F25">
-        <v>-0.04079839656035959</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02692764816496212</v>
+      </c>
+      <c r="G25">
+        <v>-0.03138192680385589</v>
+      </c>
+      <c r="H25">
+        <v>0.03349908344672872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02130371054177029</v>
+        <v>-0.0220451623783804</v>
       </c>
       <c r="C26">
-        <v>0.0009690537504503569</v>
+        <v>-0.01341765944450892</v>
       </c>
       <c r="D26">
-        <v>0.042580770541428</v>
+        <v>-0.01187264782281438</v>
       </c>
       <c r="E26">
-        <v>0.04114932505410403</v>
+        <v>0.006462918758851083</v>
       </c>
       <c r="F26">
-        <v>-0.05962328140532295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.007868303334508137</v>
+      </c>
+      <c r="G26">
+        <v>-0.03695332056913798</v>
+      </c>
+      <c r="H26">
+        <v>0.003671373745914607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07734324891373544</v>
+        <v>-0.03435460964658769</v>
       </c>
       <c r="C27">
-        <v>-0.05083286234197704</v>
+        <v>0.02180755276942782</v>
       </c>
       <c r="D27">
-        <v>0.005533531097491854</v>
+        <v>-0.007064909156625861</v>
       </c>
       <c r="E27">
-        <v>0.05647106878854787</v>
+        <v>-0.002190528140351571</v>
       </c>
       <c r="F27">
-        <v>-0.061427637000428</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02832426867097532</v>
+      </c>
+      <c r="G27">
+        <v>-0.028312684269929</v>
+      </c>
+      <c r="H27">
+        <v>0.002086832401108228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06333817787891156</v>
+        <v>-0.1052811858038043</v>
       </c>
       <c r="C28">
-        <v>-0.07487811635143374</v>
+        <v>0.03986603775122455</v>
       </c>
       <c r="D28">
-        <v>-0.08800747377093808</v>
+        <v>0.2346977047975912</v>
       </c>
       <c r="E28">
-        <v>-0.1976242304943284</v>
+        <v>0.01310487658179351</v>
       </c>
       <c r="F28">
-        <v>-0.06976375329305903</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.1091386981874802</v>
+      </c>
+      <c r="G28">
+        <v>-0.02382508199358191</v>
+      </c>
+      <c r="H28">
+        <v>-0.003320488498727474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0226789094103826</v>
+        <v>-0.02192406162974004</v>
       </c>
       <c r="C29">
-        <v>-0.02116741726310236</v>
+        <v>0.007599386689476857</v>
       </c>
       <c r="D29">
-        <v>0.008595554347343043</v>
+        <v>-0.007078857213335704</v>
       </c>
       <c r="E29">
-        <v>0.0566931680826848</v>
+        <v>-0.00734248433918559</v>
       </c>
       <c r="F29">
-        <v>-0.05211897557915554</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03121965397509972</v>
+      </c>
+      <c r="G29">
+        <v>-0.03428643580379446</v>
+      </c>
+      <c r="H29">
+        <v>-0.0149785342669315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08688471111401097</v>
+        <v>-0.06314693239187069</v>
       </c>
       <c r="C30">
-        <v>-0.05623899404155971</v>
+        <v>0.013802664240224</v>
       </c>
       <c r="D30">
-        <v>0.04925564703688586</v>
+        <v>-0.05105264629675416</v>
       </c>
       <c r="E30">
-        <v>0.0817647410096287</v>
+        <v>0.04204738789831534</v>
       </c>
       <c r="F30">
-        <v>-0.08024063633923861</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.07339489475457837</v>
+      </c>
+      <c r="G30">
+        <v>-0.06969528910296503</v>
+      </c>
+      <c r="H30">
+        <v>0.05054026575150127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05838161080234162</v>
+        <v>-0.05223549654886929</v>
       </c>
       <c r="C31">
-        <v>-0.02007926365400475</v>
+        <v>0.02669930115390653</v>
       </c>
       <c r="D31">
-        <v>0.04844507700751245</v>
+        <v>-0.01900307565089823</v>
       </c>
       <c r="E31">
-        <v>0.02275199161531485</v>
+        <v>0.01166273191208947</v>
       </c>
       <c r="F31">
-        <v>-0.03390677936300284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02100167873181642</v>
+      </c>
+      <c r="G31">
+        <v>-0.01523231073210052</v>
+      </c>
+      <c r="H31">
+        <v>-0.01443747028844387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02029925245771662</v>
+        <v>-0.008699005749018853</v>
       </c>
       <c r="C32">
-        <v>-0.02084391261224397</v>
+        <v>0.01727905377876699</v>
       </c>
       <c r="D32">
-        <v>0.01271488000019342</v>
+        <v>-0.00514662263537784</v>
       </c>
       <c r="E32">
-        <v>0.0865013597963933</v>
+        <v>-0.01769610275474855</v>
       </c>
       <c r="F32">
-        <v>-0.07702431288907925</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04992471110679931</v>
+      </c>
+      <c r="G32">
+        <v>-0.04481673112112247</v>
+      </c>
+      <c r="H32">
+        <v>0.04285346754910887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05331442969237399</v>
+        <v>-0.0405469283851681</v>
       </c>
       <c r="C33">
-        <v>-0.003316895882544313</v>
+        <v>0.01037215143659695</v>
       </c>
       <c r="D33">
-        <v>0.05220653094733609</v>
+        <v>-0.03277232171158572</v>
       </c>
       <c r="E33">
-        <v>0.05635877488423834</v>
+        <v>0.02408413569253975</v>
       </c>
       <c r="F33">
-        <v>-0.09020160386177481</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01576476522495959</v>
+      </c>
+      <c r="G33">
+        <v>-0.05784318996369234</v>
+      </c>
+      <c r="H33">
+        <v>0.02313319227886283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0318395373735056</v>
+        <v>-0.02553267928577822</v>
       </c>
       <c r="C34">
-        <v>-0.01585813985866961</v>
+        <v>0.02392188919473158</v>
       </c>
       <c r="D34">
-        <v>0.01880487587374796</v>
+        <v>-0.03011474986093949</v>
       </c>
       <c r="E34">
-        <v>0.04241316190263668</v>
+        <v>-0.003602799213111517</v>
       </c>
       <c r="F34">
-        <v>-0.04174242588624392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02826625272453933</v>
+      </c>
+      <c r="G34">
+        <v>-0.02513708293505221</v>
+      </c>
+      <c r="H34">
+        <v>0.02960724872786049</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01293630200117746</v>
+        <v>-0.0181911778061523</v>
       </c>
       <c r="C36">
-        <v>-0.008321505428491567</v>
+        <v>-0.001214602322923554</v>
       </c>
       <c r="D36">
-        <v>0.004367213451490397</v>
+        <v>7.630558033118841e-05</v>
       </c>
       <c r="E36">
-        <v>0.02769873592977943</v>
+        <v>-0.002945684525521509</v>
       </c>
       <c r="F36">
-        <v>-0.03203058644685106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.007738933753821962</v>
+      </c>
+      <c r="G36">
+        <v>-0.02183990692371011</v>
+      </c>
+      <c r="H36">
+        <v>-0.0006088964186002715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.006176004824504776</v>
+        <v>-0.01343556090215705</v>
       </c>
       <c r="C38">
-        <v>0.001495243113665879</v>
+        <v>0.01796042600554258</v>
       </c>
       <c r="D38">
-        <v>-0.01615342045910849</v>
+        <v>0.0003524573937583606</v>
       </c>
       <c r="E38">
-        <v>-0.00255327289758062</v>
+        <v>-0.006660851639146847</v>
       </c>
       <c r="F38">
-        <v>-0.01105776777784761</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01014114887186966</v>
+      </c>
+      <c r="G38">
+        <v>-0.02580819777729561</v>
+      </c>
+      <c r="H38">
+        <v>0.02239465337372698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04052331229077791</v>
+        <v>-0.02877058431457832</v>
       </c>
       <c r="C39">
-        <v>-0.02130111392729166</v>
+        <v>0.01122570888241927</v>
       </c>
       <c r="D39">
-        <v>0.03604600980730847</v>
+        <v>-0.06710070382694817</v>
       </c>
       <c r="E39">
-        <v>0.0401875624048981</v>
+        <v>0.005849078857736306</v>
       </c>
       <c r="F39">
-        <v>-0.04379375919442266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04630842329303336</v>
+      </c>
+      <c r="G39">
+        <v>-0.04641124215582507</v>
+      </c>
+      <c r="H39">
+        <v>0.05262922521186594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03576397623067575</v>
+        <v>-0.0336080003505852</v>
       </c>
       <c r="C40">
-        <v>-0.03929605056728028</v>
+        <v>0.01013482504451736</v>
       </c>
       <c r="D40">
-        <v>0.0581152597553382</v>
+        <v>-0.02505510524384887</v>
       </c>
       <c r="E40">
-        <v>0.04360357577856394</v>
+        <v>0.02116874383169741</v>
       </c>
       <c r="F40">
-        <v>-0.08205698016921756</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03963433469691453</v>
+      </c>
+      <c r="G40">
+        <v>-0.03856887640948168</v>
+      </c>
+      <c r="H40">
+        <v>0.05286661123232405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0009283349887642845</v>
+        <v>-0.007513293728068552</v>
       </c>
       <c r="C41">
-        <v>0.007101591185902445</v>
+        <v>-8.488865507188467e-05</v>
       </c>
       <c r="D41">
-        <v>0.01237041973663469</v>
+        <v>0.004383398561754692</v>
       </c>
       <c r="E41">
-        <v>0.02109710093297942</v>
+        <v>0.001251713588711856</v>
       </c>
       <c r="F41">
-        <v>-0.02332938526016368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.002113481528804639</v>
+      </c>
+      <c r="G41">
+        <v>-0.00955623509805213</v>
+      </c>
+      <c r="H41">
+        <v>-0.01656142910014676</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3835261852865153</v>
+        <v>-0.2443196115314389</v>
       </c>
       <c r="C42">
-        <v>0.8684775214833467</v>
+        <v>-0.04413910220694125</v>
       </c>
       <c r="D42">
-        <v>0.1710016446365049</v>
+        <v>-0.531183667793066</v>
       </c>
       <c r="E42">
-        <v>-0.1898632041659461</v>
+        <v>0.1099362992590276</v>
       </c>
       <c r="F42">
-        <v>0.01855122880311312</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7867295761841691</v>
+      </c>
+      <c r="G42">
+        <v>0.07769661571281836</v>
+      </c>
+      <c r="H42">
+        <v>0.02975563626131499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.008132475152743783</v>
+        <v>-0.00469953031817157</v>
       </c>
       <c r="C43">
-        <v>0.004030101932374821</v>
+        <v>-0.003095640051107511</v>
       </c>
       <c r="D43">
-        <v>0.01747909004357498</v>
+        <v>0.006082435650175621</v>
       </c>
       <c r="E43">
-        <v>0.02158050759277723</v>
+        <v>0.005051362151762034</v>
       </c>
       <c r="F43">
-        <v>-0.0343106308093038</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.00616507328853291</v>
+      </c>
+      <c r="G43">
+        <v>-0.016186666414514</v>
+      </c>
+      <c r="H43">
+        <v>-0.01030464411568833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02406054774669712</v>
+        <v>-0.01415148725020709</v>
       </c>
       <c r="C44">
-        <v>-0.007211019441142633</v>
+        <v>0.003290087027039939</v>
       </c>
       <c r="D44">
-        <v>0.03048517270134353</v>
+        <v>-0.02698939567276304</v>
       </c>
       <c r="E44">
-        <v>0.05212349531518459</v>
+        <v>-0.001393319353233989</v>
       </c>
       <c r="F44">
-        <v>-0.1894217247128156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.00772345370671529</v>
+      </c>
+      <c r="G44">
+        <v>-0.08785643485943496</v>
+      </c>
+      <c r="H44">
+        <v>0.02104825493031634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01953389532481575</v>
+        <v>-0.02227111253776937</v>
       </c>
       <c r="C46">
-        <v>-0.01964180923823989</v>
+        <v>0.00377062262185018</v>
       </c>
       <c r="D46">
-        <v>0.02668968378171115</v>
+        <v>-0.01211078289278897</v>
       </c>
       <c r="E46">
-        <v>0.05509882861512183</v>
+        <v>0.004984045600750444</v>
       </c>
       <c r="F46">
-        <v>-0.05098176978315047</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.03633282030843159</v>
+      </c>
+      <c r="G46">
+        <v>-0.04758849307156525</v>
+      </c>
+      <c r="H46">
+        <v>-0.01301500069991582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09528907777543905</v>
+        <v>-0.07253334564269291</v>
       </c>
       <c r="C47">
-        <v>-0.0355883219140089</v>
+        <v>0.04783948263051017</v>
       </c>
       <c r="D47">
-        <v>0.03090888297497444</v>
+        <v>-0.02229598584087744</v>
       </c>
       <c r="E47">
-        <v>0.04294219432408446</v>
+        <v>0.008806039170512578</v>
       </c>
       <c r="F47">
-        <v>0.001467732254571741</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03246253923904825</v>
+      </c>
+      <c r="G47">
+        <v>0.01600439781279082</v>
+      </c>
+      <c r="H47">
+        <v>-0.02849957415121488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01114037680018398</v>
+        <v>-0.0171707916633124</v>
       </c>
       <c r="C48">
-        <v>-0.005766965632013784</v>
+        <v>0.009206586593836923</v>
       </c>
       <c r="D48">
-        <v>0.02058160088387269</v>
+        <v>-0.007572124365095381</v>
       </c>
       <c r="E48">
-        <v>0.04306384547105096</v>
+        <v>0.001537189301795861</v>
       </c>
       <c r="F48">
-        <v>-0.05077273061507634</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01351730384745068</v>
+      </c>
+      <c r="G48">
+        <v>-0.02819352956023877</v>
+      </c>
+      <c r="H48">
+        <v>0.005556831538256539</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08762263226357744</v>
+        <v>-0.06703321500396145</v>
       </c>
       <c r="C50">
-        <v>-0.02064291933021687</v>
+        <v>0.04136931445897451</v>
       </c>
       <c r="D50">
-        <v>0.04425526126653371</v>
+        <v>-0.03725347283499257</v>
       </c>
       <c r="E50">
-        <v>0.04312542428648972</v>
+        <v>-0.004591867983989661</v>
       </c>
       <c r="F50">
-        <v>-0.01684554016708058</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02936221425484405</v>
+      </c>
+      <c r="G50">
+        <v>-0.01457603170582096</v>
+      </c>
+      <c r="H50">
+        <v>-0.02340420627127135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04543068042602761</v>
+        <v>-0.02838686384570373</v>
       </c>
       <c r="C51">
-        <v>-0.002871602889475808</v>
+        <v>0.007236784886363668</v>
       </c>
       <c r="D51">
-        <v>0.04657457860857815</v>
+        <v>0.002558971717675617</v>
       </c>
       <c r="E51">
-        <v>0.008744971121342612</v>
+        <v>0.01375955905629926</v>
       </c>
       <c r="F51">
-        <v>-0.1631818130942245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01427643783114464</v>
+      </c>
+      <c r="G51">
+        <v>-0.087637801812259</v>
+      </c>
+      <c r="H51">
+        <v>0.02998508885878761</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1086995906113569</v>
+        <v>-0.09487217128339713</v>
       </c>
       <c r="C53">
-        <v>-0.04521917042003899</v>
+        <v>0.06193414814754089</v>
       </c>
       <c r="D53">
-        <v>0.0546731796395078</v>
+        <v>-0.05078240582482287</v>
       </c>
       <c r="E53">
-        <v>0.06369980418773849</v>
+        <v>0.008238231067234073</v>
       </c>
       <c r="F53">
-        <v>0.06554957275186889</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06363685838170249</v>
+      </c>
+      <c r="G53">
+        <v>0.0614226437867721</v>
+      </c>
+      <c r="H53">
+        <v>-0.03573621971428386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02442265040590427</v>
+        <v>-0.02229791230057276</v>
       </c>
       <c r="C54">
-        <v>-0.03820629501264216</v>
+        <v>0.0180577423203329</v>
       </c>
       <c r="D54">
-        <v>0.007161943261838996</v>
+        <v>0.02091428428892596</v>
       </c>
       <c r="E54">
-        <v>0.03267880133386807</v>
+        <v>-0.002661182810209694</v>
       </c>
       <c r="F54">
-        <v>-0.07190875845378968</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01674258642411009</v>
+      </c>
+      <c r="G54">
+        <v>-0.0429115848476401</v>
+      </c>
+      <c r="H54">
+        <v>-0.0214804765820472</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1041469257358207</v>
+        <v>-0.08208329716203025</v>
       </c>
       <c r="C55">
-        <v>-0.03114062760546319</v>
+        <v>0.05413551400541876</v>
       </c>
       <c r="D55">
-        <v>0.006455212841927277</v>
+        <v>-0.04603329776619872</v>
       </c>
       <c r="E55">
-        <v>0.0571865688309861</v>
+        <v>-0.004259487353193271</v>
       </c>
       <c r="F55">
-        <v>0.05882322388814584</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04968621168713064</v>
+      </c>
+      <c r="G55">
+        <v>0.03936265143907005</v>
+      </c>
+      <c r="H55">
+        <v>-0.05053535526067609</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1453064047448915</v>
+        <v>-0.1231145608433605</v>
       </c>
       <c r="C56">
-        <v>-0.07135398896922815</v>
+        <v>0.08701406964369227</v>
       </c>
       <c r="D56">
-        <v>0.03483257610412618</v>
+        <v>-0.06093959742367266</v>
       </c>
       <c r="E56">
-        <v>0.07599166509436865</v>
+        <v>0.003958085149286347</v>
       </c>
       <c r="F56">
-        <v>0.1595854135185263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.085080976071898</v>
+      </c>
+      <c r="G56">
+        <v>0.103578889692259</v>
+      </c>
+      <c r="H56">
+        <v>-0.02670659745132817</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0465464358239519</v>
+        <v>-0.04458361027125268</v>
       </c>
       <c r="C57">
-        <v>-0.01784325874418977</v>
+        <v>0.0007184023379028701</v>
       </c>
       <c r="D57">
-        <v>0.03511345280029961</v>
+        <v>-0.02230520335860696</v>
       </c>
       <c r="E57">
-        <v>0.02312128823664859</v>
+        <v>0.01349535910761757</v>
       </c>
       <c r="F57">
-        <v>-0.08156471197594845</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02668668608580084</v>
+      </c>
+      <c r="G57">
+        <v>-0.0669229303970388</v>
+      </c>
+      <c r="H57">
+        <v>0.015423595850589</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2147925100577354</v>
+        <v>-0.1599261756227041</v>
       </c>
       <c r="C58">
-        <v>-0.06779154008934475</v>
+        <v>0.0862584994869484</v>
       </c>
       <c r="D58">
-        <v>0.1251981124288297</v>
+        <v>-0.1107557691517022</v>
       </c>
       <c r="E58">
-        <v>0.1233401476780001</v>
+        <v>0.1285184276729114</v>
       </c>
       <c r="F58">
-        <v>-0.2930848966667012</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.04829429246764461</v>
+      </c>
+      <c r="G58">
+        <v>-0.6704180991724558</v>
+      </c>
+      <c r="H58">
+        <v>-0.559917169520478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0680584481376825</v>
+        <v>-0.1084542587715045</v>
       </c>
       <c r="C59">
-        <v>-0.09438700471123722</v>
+        <v>0.04901423060027036</v>
       </c>
       <c r="D59">
-        <v>-0.06525792417023858</v>
+        <v>0.2208062915171632</v>
       </c>
       <c r="E59">
-        <v>-0.1408269727026188</v>
+        <v>0.02920349261236095</v>
       </c>
       <c r="F59">
-        <v>-0.05235178152906012</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.08235143702223635</v>
+      </c>
+      <c r="G59">
+        <v>-0.02649137353925714</v>
+      </c>
+      <c r="H59">
+        <v>0.0241858725861958</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1661246794264361</v>
+        <v>-0.1626708345056718</v>
       </c>
       <c r="C60">
-        <v>-0.08005667940027826</v>
+        <v>0.07437307716717852</v>
       </c>
       <c r="D60">
-        <v>0.05006141849934043</v>
+        <v>0.0118524345307131</v>
       </c>
       <c r="E60">
-        <v>-0.02077818627186166</v>
+        <v>0.05824548987595975</v>
       </c>
       <c r="F60">
-        <v>-0.1011547583317842</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.06357767197931408</v>
+      </c>
+      <c r="G60">
+        <v>-0.1225847691263388</v>
+      </c>
+      <c r="H60">
+        <v>0.3560728603419706</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02283692686793954</v>
+        <v>-0.02414566670963484</v>
       </c>
       <c r="C61">
-        <v>-0.00989126205352278</v>
+        <v>0.0136540933133665</v>
       </c>
       <c r="D61">
-        <v>0.01061475440724061</v>
+        <v>-0.03649679065476058</v>
       </c>
       <c r="E61">
-        <v>0.02977395703659946</v>
+        <v>-0.0007043589962835791</v>
       </c>
       <c r="F61">
-        <v>-0.0389937525043756</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03387181436578432</v>
+      </c>
+      <c r="G61">
+        <v>-0.0303069029240499</v>
+      </c>
+      <c r="H61">
+        <v>0.03890772452550022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0212704002790066</v>
+        <v>-0.01636983116790046</v>
       </c>
       <c r="C63">
-        <v>-0.01806216455347131</v>
+        <v>0.003396028498569372</v>
       </c>
       <c r="D63">
-        <v>0.02439781073552636</v>
+        <v>-0.01119175322883785</v>
       </c>
       <c r="E63">
-        <v>0.04694408492905173</v>
+        <v>0.0002607258237738375</v>
       </c>
       <c r="F63">
-        <v>-0.02374265894772556</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02601032477481879</v>
+      </c>
+      <c r="G63">
+        <v>-0.01966826000411709</v>
+      </c>
+      <c r="H63">
+        <v>-0.005684519778985034</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04877639381602908</v>
+        <v>-0.04646051788047031</v>
       </c>
       <c r="C64">
-        <v>-0.02637918626605053</v>
+        <v>0.02481571696804013</v>
       </c>
       <c r="D64">
-        <v>0.01059789120405836</v>
+        <v>-0.04000848352941617</v>
       </c>
       <c r="E64">
-        <v>0.08963822453076163</v>
+        <v>-0.007846748979186417</v>
       </c>
       <c r="F64">
-        <v>-0.04111942055576994</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04118856126214989</v>
+      </c>
+      <c r="G64">
+        <v>-0.0179634209039523</v>
+      </c>
+      <c r="H64">
+        <v>0.03486346077310778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.009233215749234077</v>
+        <v>-0.03560664129438057</v>
       </c>
       <c r="C65">
-        <v>0.0003068388085006388</v>
+        <v>0.004491730378108734</v>
       </c>
       <c r="D65">
-        <v>0.007779485178140234</v>
+        <v>-0.03488737612201084</v>
       </c>
       <c r="E65">
-        <v>-0.0008058588323629947</v>
+        <v>-0.00302542029179562</v>
       </c>
       <c r="F65">
-        <v>-0.007943319096088867</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03349389857446176</v>
+      </c>
+      <c r="G65">
+        <v>0.002976262842809906</v>
+      </c>
+      <c r="H65">
+        <v>0.06094809800664179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04582080081304336</v>
+        <v>-0.03735967980145788</v>
       </c>
       <c r="C66">
-        <v>-0.02608364962485807</v>
+        <v>0.01959962415197971</v>
       </c>
       <c r="D66">
-        <v>0.03597276408396478</v>
+        <v>-0.0760901496168061</v>
       </c>
       <c r="E66">
-        <v>0.05701644293037218</v>
+        <v>0.01315712119025764</v>
       </c>
       <c r="F66">
-        <v>-0.0461723775430269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06728574887168541</v>
+      </c>
+      <c r="G66">
+        <v>-0.04164357513056579</v>
+      </c>
+      <c r="H66">
+        <v>0.0646371768919512</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02597308187027161</v>
+        <v>-0.0326174445165445</v>
       </c>
       <c r="C67">
-        <v>-0.01044798834439413</v>
+        <v>0.02520212851714869</v>
       </c>
       <c r="D67">
-        <v>-0.01958202979610987</v>
+        <v>0.01001708955573472</v>
       </c>
       <c r="E67">
-        <v>-0.02199124557828955</v>
+        <v>-0.001811843100651857</v>
       </c>
       <c r="F67">
-        <v>-0.01929168673251143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01208335549295587</v>
+      </c>
+      <c r="G67">
+        <v>-0.01698310498207799</v>
+      </c>
+      <c r="H67">
+        <v>0.03518515394533634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07501971341245132</v>
+        <v>-0.1104821351019811</v>
       </c>
       <c r="C68">
-        <v>-0.08094071360165214</v>
+        <v>0.026422326285614</v>
       </c>
       <c r="D68">
-        <v>-0.0963022556785544</v>
+        <v>0.2174536214054863</v>
       </c>
       <c r="E68">
-        <v>-0.1975191275576895</v>
+        <v>0.02370784583248932</v>
       </c>
       <c r="F68">
-        <v>-0.01652753919471661</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.1063123676776037</v>
+      </c>
+      <c r="G68">
+        <v>-0.02016300768367022</v>
+      </c>
+      <c r="H68">
+        <v>-0.04593380185415121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07285294912888006</v>
+        <v>-0.05687237570877015</v>
       </c>
       <c r="C69">
-        <v>-0.03561561738995985</v>
+        <v>0.04242827598173665</v>
       </c>
       <c r="D69">
-        <v>0.02485726026352395</v>
+        <v>-0.01760758823324973</v>
       </c>
       <c r="E69">
-        <v>0.004932795019081364</v>
+        <v>0.009389891700216462</v>
       </c>
       <c r="F69">
-        <v>-0.01709279884816485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02882535102836454</v>
+      </c>
+      <c r="G69">
+        <v>0.004442373341405261</v>
+      </c>
+      <c r="H69">
+        <v>-0.008648886131739024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08870553649737464</v>
+        <v>-0.1071847578116979</v>
       </c>
       <c r="C71">
-        <v>-0.08225587011390473</v>
+        <v>0.03561992993004345</v>
       </c>
       <c r="D71">
-        <v>-0.07612972858921692</v>
+        <v>0.2032153000788553</v>
       </c>
       <c r="E71">
-        <v>-0.2355942504420917</v>
+        <v>0.02701866332923354</v>
       </c>
       <c r="F71">
-        <v>-0.04343789196843319</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.1156449677644477</v>
+      </c>
+      <c r="G71">
+        <v>-0.02409046210855312</v>
+      </c>
+      <c r="H71">
+        <v>-0.01884500545641458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1071894024792855</v>
+        <v>-0.08757500930898265</v>
       </c>
       <c r="C72">
-        <v>-0.1160039901782875</v>
+        <v>0.06652191209686439</v>
       </c>
       <c r="D72">
-        <v>0.02671519132058515</v>
+        <v>-0.05135816904627524</v>
       </c>
       <c r="E72">
-        <v>0.06912807574575529</v>
+        <v>0.01627377015163039</v>
       </c>
       <c r="F72">
-        <v>-0.05815021984083997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1190568197385857</v>
+      </c>
+      <c r="G72">
+        <v>-0.07831845050269562</v>
+      </c>
+      <c r="H72">
+        <v>0.1441065978328468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2374239075619257</v>
+        <v>-0.2269664320964543</v>
       </c>
       <c r="C73">
-        <v>-0.1116387378296556</v>
+        <v>0.09754467931774816</v>
       </c>
       <c r="D73">
-        <v>0.02965245241034741</v>
+        <v>-0.005306970723457869</v>
       </c>
       <c r="E73">
-        <v>-0.08009974495939166</v>
+        <v>0.09193990994099878</v>
       </c>
       <c r="F73">
-        <v>-0.193645400265619</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.06404448548942993</v>
+      </c>
+      <c r="G73">
+        <v>-0.1777701965878969</v>
+      </c>
+      <c r="H73">
+        <v>0.5090450427901987</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1227373510890317</v>
+        <v>-0.1098437840455968</v>
       </c>
       <c r="C74">
-        <v>-0.03648458934678631</v>
+        <v>0.0767839779755778</v>
       </c>
       <c r="D74">
-        <v>0.03244838444766451</v>
+        <v>-0.05707201524715285</v>
       </c>
       <c r="E74">
-        <v>0.03736941051714671</v>
+        <v>0.01031510762840434</v>
       </c>
       <c r="F74">
-        <v>0.1182601067416338</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06506406577989164</v>
+      </c>
+      <c r="G74">
+        <v>0.09165645289052693</v>
+      </c>
+      <c r="H74">
+        <v>-0.001739653077585343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2216061612957672</v>
+        <v>-0.2175991528704544</v>
       </c>
       <c r="C75">
-        <v>-0.1109558037471271</v>
+        <v>0.1537685221335322</v>
       </c>
       <c r="D75">
-        <v>0.07293015874371389</v>
+        <v>-0.06555790542779981</v>
       </c>
       <c r="E75">
-        <v>0.06118414298381292</v>
+        <v>0.03705408800459482</v>
       </c>
       <c r="F75">
-        <v>0.1772012357883208</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1268991587792892</v>
+      </c>
+      <c r="G75">
+        <v>0.1637703608965424</v>
+      </c>
+      <c r="H75">
+        <v>-0.09122044966942573</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2630861444363853</v>
+        <v>-0.2094101967852167</v>
       </c>
       <c r="C76">
-        <v>-0.1244213282227207</v>
+        <v>0.1518520163177399</v>
       </c>
       <c r="D76">
-        <v>0.01837754853651043</v>
+        <v>-0.07251868551483108</v>
       </c>
       <c r="E76">
-        <v>0.07225385057666621</v>
+        <v>-0.003583357865987649</v>
       </c>
       <c r="F76">
-        <v>0.2066675927113309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1357878485842578</v>
+      </c>
+      <c r="G76">
+        <v>0.1799184759900087</v>
+      </c>
+      <c r="H76">
+        <v>-0.1000529944509425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1408953038508509</v>
+        <v>-0.08100249999925387</v>
       </c>
       <c r="C77">
-        <v>0.018992366841809</v>
+        <v>0.02971051626651933</v>
       </c>
       <c r="D77">
-        <v>0.0666753269133747</v>
+        <v>-0.07326058484441141</v>
       </c>
       <c r="E77">
-        <v>0.05067835696977319</v>
+        <v>0.01609483613919805</v>
       </c>
       <c r="F77">
-        <v>-0.2133432181004962</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.003844936731318554</v>
+      </c>
+      <c r="G77">
+        <v>-0.1258694998792277</v>
+      </c>
+      <c r="H77">
+        <v>-0.04950756647213282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05629309992032389</v>
+        <v>-0.03970919806757447</v>
       </c>
       <c r="C78">
-        <v>-0.01009738446685713</v>
+        <v>0.02118111982309216</v>
       </c>
       <c r="D78">
-        <v>0.04149666848588997</v>
+        <v>-0.05348888347911095</v>
       </c>
       <c r="E78">
-        <v>0.09276623617115363</v>
+        <v>-0.001325851933400896</v>
       </c>
       <c r="F78">
-        <v>-0.04295492022560945</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04675194128758602</v>
+      </c>
+      <c r="G78">
+        <v>-0.05007352439048425</v>
+      </c>
+      <c r="H78">
+        <v>0.03452990829504322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1968889886743293</v>
+        <v>-0.1743634598882204</v>
       </c>
       <c r="C80">
-        <v>0.1791296852701149</v>
+        <v>0.09031216681328057</v>
       </c>
       <c r="D80">
-        <v>-0.8695815726116477</v>
+        <v>-0.02191575610646094</v>
       </c>
       <c r="E80">
-        <v>0.3855735650645986</v>
+        <v>-0.9620116239982391</v>
       </c>
       <c r="F80">
-        <v>-0.04425862221153404</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.08730907467398166</v>
+      </c>
+      <c r="G80">
+        <v>-0.1035954122418607</v>
+      </c>
+      <c r="H80">
+        <v>0.007811060440999558</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1564010915609465</v>
+        <v>-0.1471839465617905</v>
       </c>
       <c r="C81">
-        <v>-0.09718551653834724</v>
+        <v>0.1043317746732652</v>
       </c>
       <c r="D81">
-        <v>0.03160747654791043</v>
+        <v>-0.04373527637264209</v>
       </c>
       <c r="E81">
-        <v>0.05846748515717449</v>
+        <v>0.01032615185656543</v>
       </c>
       <c r="F81">
-        <v>0.193938674857083</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.096426510940665</v>
+      </c>
+      <c r="G81">
+        <v>0.1209486609062905</v>
+      </c>
+      <c r="H81">
+        <v>-0.0792269518211802</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05556454130215249</v>
+        <v>-0.04033116413104384</v>
       </c>
       <c r="C83">
-        <v>0.01148660572148958</v>
+        <v>0.01752534362758355</v>
       </c>
       <c r="D83">
-        <v>0.04435424107911605</v>
+        <v>-0.02411717551448488</v>
       </c>
       <c r="E83">
-        <v>0.03621949013185399</v>
+        <v>0.01426602098945747</v>
       </c>
       <c r="F83">
-        <v>-0.07890408412379091</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01261040800442467</v>
+      </c>
+      <c r="G83">
+        <v>-0.05715268301453845</v>
+      </c>
+      <c r="H83">
+        <v>0.02298702751116094</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2346285882969789</v>
+        <v>-0.2110629147008023</v>
       </c>
       <c r="C85">
-        <v>-0.09452872217046392</v>
+        <v>0.135835184435273</v>
       </c>
       <c r="D85">
-        <v>0.04520244958226426</v>
+        <v>-0.09057078540425639</v>
       </c>
       <c r="E85">
-        <v>0.06115005420844432</v>
+        <v>0.02549941413475426</v>
       </c>
       <c r="F85">
-        <v>0.1962410869032911</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1222903507495768</v>
+      </c>
+      <c r="G85">
+        <v>0.166477765358574</v>
+      </c>
+      <c r="H85">
+        <v>-0.06484711693988796</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.002163002207458319</v>
+        <v>-0.009110234129047655</v>
       </c>
       <c r="C86">
-        <v>0.006444189273558459</v>
+        <v>-0.0008666295209451392</v>
       </c>
       <c r="D86">
-        <v>0.01817293915766888</v>
+        <v>-0.01759365180617541</v>
       </c>
       <c r="E86">
-        <v>0.06896328276743224</v>
+        <v>0.005866333628692086</v>
       </c>
       <c r="F86">
-        <v>-0.07725951547782162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01208585834491231</v>
+      </c>
+      <c r="G86">
+        <v>-0.07524394968255112</v>
+      </c>
+      <c r="H86">
+        <v>0.04534391504874583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02604520879065774</v>
+        <v>-0.02679766032031744</v>
       </c>
       <c r="C87">
-        <v>-0.01432185878827154</v>
+        <v>0.008019052128665582</v>
       </c>
       <c r="D87">
-        <v>-0.00356139807426113</v>
+        <v>-0.0162803954025194</v>
       </c>
       <c r="E87">
-        <v>-0.004058249302504999</v>
+        <v>0.002071275119100361</v>
       </c>
       <c r="F87">
-        <v>-0.08099721940305724</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.01262696113432601</v>
+      </c>
+      <c r="G87">
+        <v>-0.08596437133301325</v>
+      </c>
+      <c r="H87">
+        <v>0.03072321500432839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.009002822733962608</v>
+        <v>-0.03867494539787409</v>
       </c>
       <c r="C88">
-        <v>-0.01932803204340749</v>
+        <v>-0.002499913199593474</v>
       </c>
       <c r="D88">
-        <v>-0.02061927506427757</v>
+        <v>0.01053487224702494</v>
       </c>
       <c r="E88">
-        <v>0.00302473538989123</v>
+        <v>-0.005842788724539427</v>
       </c>
       <c r="F88">
-        <v>-0.0330726076658867</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01400201818859667</v>
+      </c>
+      <c r="G88">
+        <v>0.003095656934601026</v>
+      </c>
+      <c r="H88">
+        <v>0.01541997550479966</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1042412565502026</v>
+        <v>-0.1705581308722305</v>
       </c>
       <c r="C89">
-        <v>-0.1025597958625993</v>
+        <v>0.05240182071481473</v>
       </c>
       <c r="D89">
-        <v>-0.09608484378565592</v>
+        <v>0.3465158062375788</v>
       </c>
       <c r="E89">
-        <v>-0.2977872258141855</v>
+        <v>0.0607812907536611</v>
       </c>
       <c r="F89">
-        <v>-0.09521363076657446</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1609189643886895</v>
+      </c>
+      <c r="G89">
+        <v>-0.01564202846890551</v>
+      </c>
+      <c r="H89">
+        <v>-0.01832076758339942</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09742408570496165</v>
+        <v>-0.132911001520693</v>
       </c>
       <c r="C90">
-        <v>-0.09653303419219862</v>
+        <v>0.04007038220271258</v>
       </c>
       <c r="D90">
-        <v>-0.1422138367637465</v>
+        <v>0.2980477508377137</v>
       </c>
       <c r="E90">
-        <v>-0.259158365887426</v>
+        <v>0.03247963536664135</v>
       </c>
       <c r="F90">
-        <v>-0.0487124831324499</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.1539216046550869</v>
+      </c>
+      <c r="G90">
+        <v>0.02223540085533711</v>
+      </c>
+      <c r="H90">
+        <v>-0.04067248995598403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.288990980023898</v>
+        <v>-0.2305515744548042</v>
       </c>
       <c r="C91">
-        <v>-0.09885645508682016</v>
+        <v>0.1599115047460517</v>
       </c>
       <c r="D91">
-        <v>0.06136992650764583</v>
+        <v>-0.07897402612648916</v>
       </c>
       <c r="E91">
-        <v>0.02555187825119319</v>
+        <v>0.03185945958833932</v>
       </c>
       <c r="F91">
-        <v>0.2461259209825271</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1222670382613186</v>
+      </c>
+      <c r="G91">
+        <v>0.2174875726944854</v>
+      </c>
+      <c r="H91">
+        <v>-0.1194296428863738</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1643444616810049</v>
+        <v>-0.1934620280227041</v>
       </c>
       <c r="C92">
-        <v>-0.08810608843619526</v>
+        <v>0.1244515505090967</v>
       </c>
       <c r="D92">
-        <v>-0.1802917684931606</v>
+        <v>0.2686420114218737</v>
       </c>
       <c r="E92">
-        <v>-0.3720956268393802</v>
+        <v>0.02375394468006452</v>
       </c>
       <c r="F92">
-        <v>-0.08607838531366147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1377134701810353</v>
+      </c>
+      <c r="G92">
+        <v>0.03458825501554061</v>
+      </c>
+      <c r="H92">
+        <v>-0.1344967575420217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1060377173041657</v>
+        <v>-0.1536726005944424</v>
       </c>
       <c r="C93">
-        <v>-0.08400291938027694</v>
+        <v>0.05389415015093716</v>
       </c>
       <c r="D93">
-        <v>-0.1672103707676431</v>
+        <v>0.3287457624841028</v>
       </c>
       <c r="E93">
-        <v>-0.3674916420420408</v>
+        <v>0.04910920855046165</v>
       </c>
       <c r="F93">
-        <v>-0.01469590884714562</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.1952063834825505</v>
+      </c>
+      <c r="G93">
+        <v>0.02554267833046789</v>
+      </c>
+      <c r="H93">
+        <v>0.01706208979215298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2592568653032536</v>
+        <v>-0.2487330374564288</v>
       </c>
       <c r="C94">
-        <v>-0.1225674379916882</v>
+        <v>0.1505501820796576</v>
       </c>
       <c r="D94">
-        <v>0.0291330645166245</v>
+        <v>-0.05653768458530226</v>
       </c>
       <c r="E94">
-        <v>0.05395920141030622</v>
+        <v>0.04514864684900873</v>
       </c>
       <c r="F94">
-        <v>0.3044658829610292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1342907237844266</v>
+      </c>
+      <c r="G94">
+        <v>0.2365142242505295</v>
+      </c>
+      <c r="H94">
+        <v>-0.1279120340674318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.106832089606081</v>
+        <v>-0.0720600923775393</v>
       </c>
       <c r="C95">
-        <v>-0.01625832423648129</v>
+        <v>0.05376635524517209</v>
       </c>
       <c r="D95">
-        <v>0.09272925383115053</v>
+        <v>-0.07726908882955288</v>
       </c>
       <c r="E95">
-        <v>0.08596949540764143</v>
+        <v>0.07860209593941557</v>
       </c>
       <c r="F95">
-        <v>-0.07068167076889514</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03160637082302421</v>
+      </c>
+      <c r="G95">
+        <v>-0.07302308796789468</v>
+      </c>
+      <c r="H95">
+        <v>0.01589516527191758</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1828745774212771</v>
+        <v>-0.1666437602067657</v>
       </c>
       <c r="C98">
-        <v>-0.05757776511506688</v>
+        <v>0.1057102988367306</v>
       </c>
       <c r="D98">
-        <v>0.02605126907637021</v>
+        <v>-0.002323113554886151</v>
       </c>
       <c r="E98">
-        <v>-0.0795858395243995</v>
+        <v>0.06257428200389187</v>
       </c>
       <c r="F98">
-        <v>-0.07708570311331407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.02220622436078071</v>
+      </c>
+      <c r="G98">
+        <v>-0.15186529441791</v>
+      </c>
+      <c r="H98">
+        <v>0.3599939718788673</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007768461670303998</v>
+        <v>-0.01536266131857097</v>
       </c>
       <c r="C101">
-        <v>-0.02638405367826192</v>
+        <v>0.004305908719974612</v>
       </c>
       <c r="D101">
-        <v>0.03005789549842337</v>
+        <v>-0.009855107422887189</v>
       </c>
       <c r="E101">
-        <v>0.1002267272946792</v>
+        <v>-0.002550910312116903</v>
       </c>
       <c r="F101">
-        <v>-0.1710495821858669</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03979092100070065</v>
+      </c>
+      <c r="G101">
+        <v>-0.09565322253554016</v>
+      </c>
+      <c r="H101">
+        <v>-0.06819648441189055</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1027974823828993</v>
+        <v>-0.1095919158298419</v>
       </c>
       <c r="C102">
-        <v>-0.02606217076575312</v>
+        <v>0.06270541141401936</v>
       </c>
       <c r="D102">
-        <v>0.03162460423625491</v>
+        <v>-0.04898827232380554</v>
       </c>
       <c r="E102">
-        <v>0.08038127499423872</v>
+        <v>0.007164826496143212</v>
       </c>
       <c r="F102">
-        <v>0.1326649585715258</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06647628964194091</v>
+      </c>
+      <c r="G102">
+        <v>0.1001716700286037</v>
+      </c>
+      <c r="H102">
+        <v>-0.06135641004536412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02593658296967637</v>
+        <v>-0.02263455876111046</v>
       </c>
       <c r="C103">
-        <v>-0.007882361250503437</v>
+        <v>0.01393600907704078</v>
       </c>
       <c r="D103">
-        <v>0.009046988781070651</v>
+        <v>-0.01214218864766468</v>
       </c>
       <c r="E103">
-        <v>0.01199901050279818</v>
+        <v>-0.005955193303654049</v>
       </c>
       <c r="F103">
-        <v>0.02750163227052802</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01539315783979673</v>
+      </c>
+      <c r="G103">
+        <v>0.01077059664959313</v>
+      </c>
+      <c r="H103">
+        <v>-0.008389436279272612</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4538378540505105</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8686049807562001</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.03355816621017228</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01843998896270302</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.162426876358266</v>
+      </c>
+      <c r="G104">
+        <v>0.04094335604468118</v>
+      </c>
+      <c r="H104">
+        <v>-0.03504225844164113</v>
       </c>
     </row>
   </sheetData>
